--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002908</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国睿利定期开放混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>66.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.94</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>002908</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>富国睿利定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.99</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.13</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>50.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>96.05</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1060,7 +1061,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -1076,6 +1076,402 @@
       </c>
       <c r="H8" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1477,4 +1478,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1648,4 +1649,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,7 +1658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1668,17 +1669,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1688,14 +1709,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.02</v>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1704,14 +1747,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4.74</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="4">
@@ -1720,14 +1853,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.63</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="5">
@@ -1736,13 +1869,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>4.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1801,17 +1802,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1821,14 +1842,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1837,14 +1880,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.02</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -1853,14 +1986,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.74</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5">
@@ -1869,14 +2002,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.63</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="6">
@@ -1885,13 +2018,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
         <v>4.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,7 +1924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1934,17 +1935,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1954,14 +1975,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1970,14 +2013,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -1986,14 +2119,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.02</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -2002,14 +2135,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.74</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="6">
@@ -2018,14 +2151,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.63</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="7">
@@ -2034,13 +2167,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.02</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.74</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>3.63</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>4.59</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.53</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3613</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +919,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>18.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.41</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5424</t>
+          <t>0.3613</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -826,36 +957,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006348</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华盛利混合</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2901</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -920,36 +1051,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>82.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7032</t>
+          <t>0.5424</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -958,36 +1089,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>006348</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>银华盛利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>88.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.2901</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -996,6 +1127,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1165,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1561,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1876,7 +2139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002623-亚玛顿.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.02</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>4.74</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>3.63</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
         <v>4.59</v>
       </c>
     </row>
@@ -616,7 +633,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -855,138 +1288,6 @@
       </c>
       <c r="H6" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001113</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3613</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004344</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1051,36 +1352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>18.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.41</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5424</t>
+          <t>0.3613</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1089,36 +1390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006348</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华盛利混合</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2901</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1183,36 +1484,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>82.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7032</t>
+          <t>0.5424</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1221,36 +1522,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>006348</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>银华盛利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>88.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.2901</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1259,6 +1560,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1428,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1824,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2137,326 +2570,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>66.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1370</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005368</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2382</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0326</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1735</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011127</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>